--- a/Document/7.8/04小指标界面设计及测点算法说明.xlsx
+++ b/Document/7.8/04小指标界面设计及测点算法说明.xlsx
@@ -4259,16 +4259,22 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4277,23 +4283,32 @@
     <xf numFmtId="176" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4343,23 +4358,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10247,8 +10247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10286,30 +10286,30 @@
       <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:22" ht="20.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
@@ -10343,10 +10343,10 @@
         <v>24</v>
       </c>
       <c r="O5" s="58"/>
-      <c r="P5" s="65" t="s">
+      <c r="P5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="66"/>
+      <c r="Q5" s="60"/>
       <c r="R5" s="57" t="s">
         <v>25</v>
       </c>
@@ -10363,42 +10363,42 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59" t="s">
+      <c r="G6" s="61"/>
+      <c r="H6" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59" t="s">
+      <c r="I6" s="61"/>
+      <c r="J6" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60" t="s">
+      <c r="K6" s="61"/>
+      <c r="L6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="60"/>
-      <c r="N6" s="59" t="s">
+      <c r="M6" s="62"/>
+      <c r="N6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="60" t="s">
+      <c r="O6" s="61"/>
+      <c r="P6" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="59" t="s">
+      <c r="Q6" s="62"/>
+      <c r="R6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="59"/>
+      <c r="S6" s="61"/>
       <c r="T6" s="4"/>
       <c r="U6" s="5" t="s">
         <v>5</v>
@@ -10908,10 +10908,10 @@
         <v>16</v>
       </c>
       <c r="O13" s="58"/>
-      <c r="P13" s="55" t="s">
+      <c r="P13" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="56"/>
+      <c r="Q13" s="64"/>
       <c r="R13" s="57" t="s">
         <v>33</v>
       </c>
@@ -10924,42 +10924,42 @@
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59" t="s">
+      <c r="C14" s="61"/>
+      <c r="D14" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59" t="s">
+      <c r="E14" s="61"/>
+      <c r="F14" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59" t="s">
+      <c r="G14" s="61"/>
+      <c r="H14" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59" t="s">
+      <c r="I14" s="61"/>
+      <c r="J14" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="59"/>
-      <c r="L14" s="60" t="s">
+      <c r="K14" s="61"/>
+      <c r="L14" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="60"/>
-      <c r="N14" s="59" t="s">
+      <c r="M14" s="62"/>
+      <c r="N14" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59" t="s">
+      <c r="O14" s="61"/>
+      <c r="P14" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="61" t="s">
+      <c r="Q14" s="61"/>
+      <c r="R14" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="62"/>
+      <c r="S14" s="66"/>
       <c r="T14" s="14"/>
       <c r="U14" s="5" t="s">
         <v>36</v>
@@ -11513,16 +11513,17 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:S6"/>
@@ -11539,17 +11540,16 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11583,24 +11583,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>741</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="27"/>
       <c r="H2" s="20"/>
     </row>
@@ -11620,10 +11620,10 @@
       <c r="E3" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="68"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="21" t="s">
         <v>52</v>
       </c>
@@ -11796,19 +11796,19 @@
       <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" s="39" customFormat="1" ht="48" customHeight="1">
-      <c r="A11" s="75">
+      <c r="A11" s="80">
         <v>8</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="83" t="s">
         <v>671</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="85" t="s">
         <v>640</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="67" t="s">
         <v>638</v>
       </c>
       <c r="F11" s="35" t="s">
@@ -11822,11 +11822,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="39" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
       <c r="F12" s="35" t="s">
         <v>608</v>
       </c>
@@ -11838,11 +11838,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="39" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
       <c r="F13" s="35" t="s">
         <v>609</v>
       </c>
@@ -11854,11 +11854,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="39" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
       <c r="F14" s="35" t="s">
         <v>610</v>
       </c>
@@ -11870,11 +11870,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="39" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A15" s="76"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
       <c r="F15" s="35" t="s">
         <v>611</v>
       </c>
@@ -11886,11 +11886,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="39" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
       <c r="F16" s="35" t="s">
         <v>612</v>
       </c>
@@ -11902,11 +11902,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="39" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="76"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="35" t="s">
         <v>613</v>
       </c>
@@ -11918,11 +11918,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="39" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="77"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
       <c r="F18" s="35" t="s">
         <v>614</v>
       </c>
@@ -11934,13 +11934,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="39" customFormat="1" ht="105" customHeight="1">
-      <c r="A19" s="75">
+      <c r="A19" s="80">
         <v>9</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="78" t="s">
         <v>642</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="83" t="s">
         <v>670</v>
       </c>
       <c r="D19" s="45" t="s">
@@ -11954,9 +11954,9 @@
       <c r="H19" s="43"/>
     </row>
     <row r="20" spans="1:8" s="39" customFormat="1" ht="84.75" thickBot="1">
-      <c r="A20" s="76"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="79"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
       <c r="F20" s="42" t="s">
@@ -11966,19 +11966,19 @@
       <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8" s="39" customFormat="1" ht="60">
-      <c r="A21" s="85">
+      <c r="A21" s="69">
         <v>10</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="71" t="s">
         <v>653</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="69" t="s">
         <v>671</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="69" t="s">
         <v>641</v>
       </c>
-      <c r="E21" s="85"/>
+      <c r="E21" s="69"/>
       <c r="F21" s="38" t="s">
         <v>654</v>
       </c>
@@ -11986,11 +11986,11 @@
       <c r="H21" s="43"/>
     </row>
     <row r="22" spans="1:8" s="39" customFormat="1" ht="60">
-      <c r="A22" s="85"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="38" t="s">
         <v>655</v>
       </c>
@@ -11998,27 +11998,27 @@
       <c r="H22" s="36"/>
     </row>
     <row r="23" spans="1:8" s="39" customFormat="1" ht="60">
-      <c r="A23" s="85"/>
-      <c r="B23" s="86" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="71" t="s">
         <v>656</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="69" t="s">
         <v>671</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="69" t="s">
         <v>641</v>
       </c>
-      <c r="E23" s="85"/>
+      <c r="E23" s="69"/>
       <c r="F23" s="38" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="49" customFormat="1" ht="60">
-      <c r="A24" s="85"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
       <c r="F24" s="38" t="s">
         <v>658</v>
       </c>
@@ -12026,49 +12026,35 @@
       <c r="H24" s="36"/>
     </row>
     <row r="25" spans="1:8" s="49" customFormat="1" ht="96">
-      <c r="A25" s="83">
+      <c r="A25" s="67">
         <v>11</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="69" t="s">
         <v>643</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="69" t="s">
         <v>671</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="69" t="s">
         <v>659</v>
       </c>
-      <c r="E25" s="88"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="38" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="49" customFormat="1" ht="48">
-      <c r="A26" s="87"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="88"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="38" t="s">
         <v>660</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -12080,6 +12066,20 @@
     <mergeCell ref="D11:D18"/>
     <mergeCell ref="E11:E18"/>
     <mergeCell ref="C11:C18"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
